--- a/src/test/resources/beauty.xlsx
+++ b/src/test/resources/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>CA-MJJKU6X4</t>
+  </si>
+  <si>
+    <t>CA-Q9BY5IDA</t>
+  </si>
+  <si>
+    <t>CA-GQBN1JCN</t>
+  </si>
+  <si>
+    <t>CA-DZBVQRM5</t>
+  </si>
+  <si>
+    <t>CA-BFT7ATK3</t>
+  </si>
+  <si>
+    <t>CA-YDMINHFE</t>
+  </si>
+  <si>
+    <t>CA-GR3YS7OI</t>
   </si>
 </sst>
 </file>
@@ -552,7 +570,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
